--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="294">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -693,6 +693,24 @@
   </si>
   <si>
     <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red algae floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">紅藻の床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seabed floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">海底の床</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -990,7 +1008,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1002,10 +1020,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1021,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1040,10 +1058,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1059,10 +1077,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1078,10 +1096,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1097,10 +1115,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1116,10 +1134,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1135,10 +1153,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1154,10 +1172,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1173,10 +1191,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1192,10 +1210,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1211,10 +1229,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1230,10 +1248,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1249,10 +1267,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1268,10 +1286,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C18" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1287,10 +1305,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1306,10 +1324,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C20" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1325,10 +1343,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1344,10 +1362,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1363,10 +1381,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C23" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1382,10 +1400,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1401,10 +1419,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1420,10 +1438,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1439,10 +1457,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1458,10 +1476,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1477,10 +1495,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1496,10 +1514,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1515,10 +1533,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C31" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1534,10 +1552,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C32" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1553,10 +1571,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1572,10 +1590,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1591,10 +1609,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1610,10 +1628,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1629,10 +1647,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C37" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1648,10 +1666,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1667,10 +1685,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1686,10 +1704,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1705,10 +1723,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1724,10 +1742,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1743,10 +1761,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1762,10 +1780,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C44" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1781,10 +1799,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1800,10 +1818,10 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -1819,10 +1837,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1838,10 +1856,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1857,10 +1875,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1876,10 +1894,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1895,10 +1913,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C51" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1914,10 +1932,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -1933,10 +1951,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -1952,10 +1970,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C54" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -1971,10 +1989,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C55" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -1990,10 +2008,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C56" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2009,10 +2027,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C57" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2028,10 +2046,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2047,10 +2065,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C59" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2066,10 +2084,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C60" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2085,10 +2103,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C61" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2104,10 +2122,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2123,10 +2141,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2142,10 +2160,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2161,10 +2179,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C65" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2180,10 +2198,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2199,10 +2217,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2218,10 +2236,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2237,10 +2255,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C69" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2256,10 +2274,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2275,10 +2293,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2294,10 +2312,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2313,10 +2331,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2332,10 +2350,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2351,10 +2369,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2370,10 +2388,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2389,10 +2407,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2408,10 +2426,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2427,10 +2445,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2446,10 +2464,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2465,10 +2483,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2484,10 +2502,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2503,10 +2521,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2522,10 +2540,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2541,10 +2559,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2560,10 +2578,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2579,10 +2597,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2598,10 +2616,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C88" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2617,10 +2635,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C89" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2636,10 +2654,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2655,10 +2673,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2674,10 +2692,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2693,10 +2711,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2712,10 +2730,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2731,10 +2749,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2750,10 +2768,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2769,10 +2787,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2788,10 +2806,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2807,10 +2825,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2826,10 +2844,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2845,10 +2863,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2864,10 +2882,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2883,10 +2901,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2902,10 +2920,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2921,10 +2939,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -2940,10 +2958,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -2959,10 +2977,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -2978,10 +2996,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C108" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -2997,10 +3015,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C109" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3016,10 +3034,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C110" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3035,10 +3053,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3054,10 +3072,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3073,10 +3091,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C113" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3092,10 +3110,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3111,10 +3129,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3130,10 +3148,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3149,10 +3167,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3168,10 +3186,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3187,10 +3205,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C119" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3206,10 +3224,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C120" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3225,10 +3243,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3244,10 +3262,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3263,10 +3281,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3276,6 +3294,38 @@
       </c>
       <c r="G123"/>
       <c r="H123"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>226</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" t="s">
+        <v>227</v>
+      </c>
+      <c r="E124" t="s">
+        <v>228</v>
+      </c>
+      <c r="G124"/>
+      <c r="H124"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" t="s">
+        <v>231</v>
+      </c>
+      <c r="G125"/>
+      <c r="H125"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="310">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -729,6 +729,18 @@
   </si>
   <si>
     <t xml:space="preserve">ビスケットの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キノコの床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1044,7 +1056,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1056,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1075,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1094,10 +1106,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1113,10 +1125,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1132,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1151,10 +1163,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1170,10 +1182,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1189,10 +1201,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1208,10 +1220,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1227,10 +1239,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1246,10 +1258,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1265,10 +1277,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1284,10 +1296,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1303,10 +1315,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1322,10 +1334,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1341,10 +1353,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1360,10 +1372,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1379,10 +1391,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1398,10 +1410,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1417,10 +1429,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1436,10 +1448,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1455,10 +1467,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1474,10 +1486,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1493,10 +1505,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1512,10 +1524,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C28" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1531,10 +1543,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1550,10 +1562,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1569,10 +1581,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C31" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1588,10 +1600,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1607,10 +1619,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1626,10 +1638,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1645,10 +1657,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1664,10 +1676,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1683,10 +1695,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1702,10 +1714,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1721,10 +1733,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1740,10 +1752,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1759,10 +1771,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1778,10 +1790,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1797,10 +1809,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1816,10 +1828,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1835,10 +1847,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1854,10 +1866,10 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C46" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -1873,10 +1885,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C47" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1892,10 +1904,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1911,10 +1923,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1930,10 +1942,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C50" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1949,10 +1961,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C51" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1968,10 +1980,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -1987,10 +1999,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -2006,10 +2018,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C54" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -2025,10 +2037,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2044,10 +2056,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2063,10 +2075,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2082,10 +2094,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2101,10 +2113,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C59" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2120,10 +2132,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C60" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2139,10 +2151,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2158,10 +2170,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2177,10 +2189,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2196,10 +2208,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2215,10 +2227,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2234,10 +2246,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2253,10 +2265,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2272,10 +2284,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2291,10 +2303,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C69" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2310,10 +2322,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C70" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2329,10 +2341,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C71" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2348,10 +2360,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C72" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2367,10 +2379,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2386,10 +2398,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C74" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2405,10 +2417,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C75" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2424,10 +2436,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2443,10 +2455,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2462,10 +2474,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2481,10 +2493,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2500,10 +2512,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2519,10 +2531,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2538,10 +2550,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C82" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2557,10 +2569,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2576,10 +2588,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2595,10 +2607,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2614,10 +2626,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C86" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2633,10 +2645,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2652,10 +2664,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C88" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2671,10 +2683,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2690,10 +2702,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2709,10 +2721,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2728,10 +2740,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2747,10 +2759,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2766,10 +2778,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C94" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2785,10 +2797,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2804,10 +2816,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2823,10 +2835,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2842,10 +2854,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2861,10 +2873,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2880,10 +2892,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2899,10 +2911,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2918,10 +2930,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2937,10 +2949,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2956,10 +2968,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2975,10 +2987,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -2994,10 +3006,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -3013,10 +3025,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C107" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3032,10 +3044,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3051,10 +3063,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C109" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3070,10 +3082,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C110" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3089,10 +3101,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C111" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3108,10 +3120,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3127,10 +3139,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3146,10 +3158,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3165,10 +3177,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3184,10 +3196,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3203,10 +3215,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3222,10 +3234,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C118" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3241,10 +3253,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C119" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3260,10 +3272,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C120" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3279,10 +3291,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3298,10 +3310,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3317,10 +3329,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C123" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3336,10 +3348,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3355,10 +3367,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3374,10 +3386,10 @@
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
         <v>233</v>
@@ -3393,10 +3405,10 @@
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -3406,6 +3418,38 @@
       </c>
       <c r="G127"/>
       <c r="H127"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>238</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" t="s">
+        <v>239</v>
+      </c>
+      <c r="E128" t="s">
+        <v>240</v>
+      </c>
+      <c r="G128"/>
+      <c r="H128"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>239</v>
+      </c>
+      <c r="E129" t="s">
+        <v>240</v>
+      </c>
+      <c r="G129"/>
+      <c r="H129"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>

--- a/Mod_Korean/Lang/KR/Game/Floor.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Floor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="313">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -741,6 +741,9 @@
   </si>
   <si>
     <t xml:space="preserve">126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">127</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -1062,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -1074,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1093,10 +1096,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1112,10 +1115,10 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1131,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1150,10 +1153,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1169,10 +1172,10 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1188,10 +1191,10 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1207,10 +1210,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1226,10 +1229,10 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -1245,10 +1248,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D13" t="s">
         <v>34</v>
@@ -1264,10 +1267,10 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -1283,10 +1286,10 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1302,10 +1305,10 @@
         <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
         <v>41</v>
@@ -1321,10 +1324,10 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1340,10 +1343,10 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1359,10 +1362,10 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1378,10 +1381,10 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
@@ -1397,10 +1400,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1416,10 +1419,10 @@
         <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1435,10 +1438,10 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
         <v>54</v>
@@ -1454,10 +1457,10 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1473,10 +1476,10 @@
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
         <v>60</v>
@@ -1492,10 +1495,10 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
         <v>63</v>
@@ -1511,10 +1514,10 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1530,10 +1533,10 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
@@ -1549,10 +1552,10 @@
         <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
         <v>29</v>
@@ -1568,10 +1571,10 @@
         <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
@@ -1587,10 +1590,10 @@
         <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -1606,10 +1609,10 @@
         <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -1625,10 +1628,10 @@
         <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D33" t="s">
         <v>74</v>
@@ -1644,10 +1647,10 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1663,10 +1666,10 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -1682,10 +1685,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
         <v>74</v>
@@ -1701,10 +1704,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
         <v>81</v>
@@ -1720,10 +1723,10 @@
         <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -1739,10 +1742,10 @@
         <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
         <v>87</v>
@@ -1758,10 +1761,10 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
         <v>90</v>
@@ -1777,10 +1780,10 @@
         <v>92</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -1796,10 +1799,10 @@
         <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
         <v>96</v>
@@ -1815,10 +1818,10 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s">
         <v>99</v>
@@ -1834,10 +1837,10 @@
         <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
         <v>102</v>
@@ -1853,10 +1856,10 @@
         <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
@@ -1872,10 +1875,10 @@
         <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
         <v>108</v>
@@ -1891,10 +1894,10 @@
         <v>110</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
         <v>111</v>
@@ -1910,10 +1913,10 @@
         <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
         <v>102</v>
@@ -1929,10 +1932,10 @@
         <v>115</v>
       </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -1948,10 +1951,10 @@
         <v>116</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D50" t="s">
         <v>23</v>
@@ -1967,10 +1970,10 @@
         <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -1986,10 +1989,10 @@
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>119</v>
@@ -2005,10 +2008,10 @@
         <v>121</v>
       </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D53" t="s">
         <v>122</v>
@@ -2024,10 +2027,10 @@
         <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D54" t="s">
         <v>122</v>
@@ -2043,10 +2046,10 @@
         <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
@@ -2062,10 +2065,10 @@
         <v>126</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D56" t="s">
         <v>26</v>
@@ -2081,10 +2084,10 @@
         <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D57" t="s">
         <v>128</v>
@@ -2100,10 +2103,10 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
@@ -2119,10 +2122,10 @@
         <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C59" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D59" t="s">
         <v>96</v>
@@ -2138,10 +2141,10 @@
         <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D60" t="s">
         <v>23</v>
@@ -2157,10 +2160,10 @@
         <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -2176,10 +2179,10 @@
         <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D62" t="s">
         <v>26</v>
@@ -2195,10 +2198,10 @@
         <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
@@ -2214,10 +2217,10 @@
         <v>136</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D64" t="s">
         <v>26</v>
@@ -2233,10 +2236,10 @@
         <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
@@ -2252,10 +2255,10 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" t="s">
         <v>29</v>
@@ -2271,10 +2274,10 @@
         <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D67" t="s">
         <v>26</v>
@@ -2290,10 +2293,10 @@
         <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D68" t="s">
         <v>29</v>
@@ -2309,10 +2312,10 @@
         <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
         <v>63</v>
@@ -2328,10 +2331,10 @@
         <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D70" t="s">
         <v>63</v>
@@ -2347,10 +2350,10 @@
         <v>143</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D71" t="s">
         <v>63</v>
@@ -2366,10 +2369,10 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D72" t="s">
         <v>63</v>
@@ -2385,10 +2388,10 @@
         <v>145</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D73" t="s">
         <v>63</v>
@@ -2404,10 +2407,10 @@
         <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D74" t="s">
         <v>63</v>
@@ -2423,10 +2426,10 @@
         <v>147</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D75" t="s">
         <v>148</v>
@@ -2442,10 +2445,10 @@
         <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2461,10 +2464,10 @@
         <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D77" t="s">
         <v>74</v>
@@ -2480,10 +2483,10 @@
         <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D78" t="s">
         <v>155</v>
@@ -2499,10 +2502,10 @@
         <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2518,10 +2521,10 @@
         <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D80" t="s">
         <v>161</v>
@@ -2537,10 +2540,10 @@
         <v>163</v>
       </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D81" t="s">
         <v>164</v>
@@ -2556,10 +2559,10 @@
         <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D82" t="s">
         <v>164</v>
@@ -2575,10 +2578,10 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D83" t="s">
         <v>164</v>
@@ -2594,10 +2597,10 @@
         <v>168</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
         <v>164</v>
@@ -2613,10 +2616,10 @@
         <v>169</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -2632,10 +2635,10 @@
         <v>172</v>
       </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C86" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -2651,10 +2654,10 @@
         <v>173</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -2670,10 +2673,10 @@
         <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C88" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -2689,10 +2692,10 @@
         <v>175</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C89" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -2708,10 +2711,10 @@
         <v>176</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -2727,10 +2730,10 @@
         <v>177</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -2746,10 +2749,10 @@
         <v>178</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -2765,10 +2768,10 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D93" t="s">
         <v>180</v>
@@ -2784,10 +2787,10 @@
         <v>182</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
         <v>63</v>
@@ -2803,10 +2806,10 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D95" t="s">
         <v>164</v>
@@ -2822,10 +2825,10 @@
         <v>184</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
         <v>185</v>
@@ -2841,10 +2844,10 @@
         <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C97" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D97" t="s">
         <v>188</v>
@@ -2860,10 +2863,10 @@
         <v>190</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
         <v>188</v>
@@ -2879,10 +2882,10 @@
         <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C99" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D99" t="s">
         <v>192</v>
@@ -2898,10 +2901,10 @@
         <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D100" t="s">
         <v>192</v>
@@ -2917,10 +2920,10 @@
         <v>195</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D101" t="s">
         <v>185</v>
@@ -2936,10 +2939,10 @@
         <v>196</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D102" t="s">
         <v>197</v>
@@ -2955,10 +2958,10 @@
         <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>200</v>
@@ -2974,10 +2977,10 @@
         <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D104" t="s">
         <v>155</v>
@@ -2993,10 +2996,10 @@
         <v>203</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -3012,10 +3015,10 @@
         <v>204</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
@@ -3031,10 +3034,10 @@
         <v>205</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>128</v>
@@ -3050,10 +3053,10 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
@@ -3069,10 +3072,10 @@
         <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C109" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D109" t="s">
         <v>26</v>
@@ -3088,10 +3091,10 @@
         <v>208</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3107,10 +3110,10 @@
         <v>209</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
         <v>26</v>
@@ -3126,10 +3129,10 @@
         <v>210</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
         <v>26</v>
@@ -3145,10 +3148,10 @@
         <v>211</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
         <v>63</v>
@@ -3164,10 +3167,10 @@
         <v>212</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D114" t="s">
         <v>63</v>
@@ -3183,10 +3186,10 @@
         <v>213</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C115" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D115" t="s">
         <v>214</v>
@@ -3202,10 +3205,10 @@
         <v>216</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C116" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D116" t="s">
         <v>217</v>
@@ -3221,10 +3224,10 @@
         <v>219</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C117" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D117" t="s">
         <v>217</v>
@@ -3240,10 +3243,10 @@
         <v>220</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D118" t="s">
         <v>50</v>
@@ -3259,10 +3262,10 @@
         <v>221</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D119" t="s">
         <v>50</v>
@@ -3278,10 +3281,10 @@
         <v>222</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D120" t="s">
         <v>26</v>
@@ -3297,10 +3300,10 @@
         <v>223</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D121" t="s">
         <v>50</v>
@@ -3316,10 +3319,10 @@
         <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D122" t="s">
         <v>50</v>
@@ -3335,10 +3338,10 @@
         <v>225</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D123" t="s">
         <v>50</v>
@@ -3354,10 +3357,10 @@
         <v>226</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D124" t="s">
         <v>227</v>
@@ -3373,10 +3376,10 @@
         <v>229</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D125" t="s">
         <v>230</v>
@@ -3392,10 +3395,10 @@
         <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D126" t="s">
         <v>233</v>
@@ -3411,10 +3414,10 @@
         <v>235</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D127" t="s">
         <v>236</v>
@@ -3430,10 +3433,10 @@
         <v>238</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D128" t="s">
         <v>239</v>
@@ -3449,10 +3452,10 @@
         <v>241</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D129" t="s">
         <v>239</v>
@@ -3462,6 +3465,22 @@
       </c>
       <c r="G129"/>
       <c r="H129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="G130"/>
+      <c r="H130"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H2"/>
